--- a/biology/Botanique/Campsis_grandiflora/Campsis_grandiflora.xlsx
+++ b/biology/Botanique/Campsis_grandiflora/Campsis_grandiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Campsis grandiflora, ou bignone à grandes fleurs, parfois appelée bignone de Chine[1] (en raison de son ancien nom Bignonia grandiflora) est une liane grimpante de la famille des bignoniacées originaire du Japon et de Chine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Campsis grandiflora, ou bignone à grandes fleurs, parfois appelée bignone de Chine (en raison de son ancien nom Bignonia grandiflora) est une liane grimpante de la famille des bignoniacées originaire du Japon et de Chine.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante grimpante vigoureuse.
 Les feuilles sont caduques de 20 à 30 cm de long sont pennées, vert moyen à foncé, composées de 7 à 9 folioles ovales. 
 Les fleurs s'épanouissent de juillet à octobre, sur les rameaux de l'année. Les inflorescences sont constituées de bouquets terminaux (cymes) composées de 6 à 12 fleurs rouges ou orange en entonnoir large aux lobes étalés. Les racines sont aériennes.
-Cette espèce est proche de Campsis radicans, la Trompette de Virginie, avec laquelle elle s'hybride, et s'en distingue surtout par une corolle plus courte et plus ouverte[2].
+Cette espèce est proche de Campsis radicans, la Trompette de Virginie, avec laquelle elle s'hybride, et s'en distingue surtout par une corolle plus courte et plus ouverte.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Campsis grandiflora est  rustique (Zone USDA 8a jusqu'à -10 °C ) mais doit être plantée en plein soleil et à l'abri du vent. Cette espèce est tolérante sur les sols et supporte des périodes de sécheresse une fois en place.
-On peut aussi greffer l'espèce sur du catalpa[3].
+On peut aussi greffer l'espèce sur du catalpa.
 </t>
         </is>
       </c>
